--- a/outcome/appendix/data/Epidemic/HBV.xlsx
+++ b/outcome/appendix/data/Epidemic/HBV.xlsx
@@ -427,19 +427,19 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>116473.871876791</v>
+        <v>116352.654898389</v>
       </c>
       <c r="C2" t="n">
-        <v>109030.208725007</v>
+        <v>109684.099084127</v>
       </c>
       <c r="D2" t="n">
-        <v>105173.762288524</v>
+        <v>106976.019606426</v>
       </c>
       <c r="E2" t="n">
-        <v>123871.104659245</v>
+        <v>123643.727864597</v>
       </c>
       <c r="F2" t="n">
-        <v>126964.080580976</v>
+        <v>126367.145507742</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -448,7 +448,7 @@
         <v>91026</v>
       </c>
       <c r="I2" t="n">
-        <v>25447.8718767909</v>
+        <v>25326.6548983892</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -459,19 +459,19 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>104718.629510458</v>
+        <v>104757.132668435</v>
       </c>
       <c r="C3" t="n">
-        <v>97416.2087788204</v>
+        <v>96607.8830655305</v>
       </c>
       <c r="D3" t="n">
-        <v>93646.1146962704</v>
+        <v>92453.3238106485</v>
       </c>
       <c r="E3" t="n">
-        <v>112671.965014889</v>
+        <v>112330.730677867</v>
       </c>
       <c r="F3" t="n">
-        <v>116120.424628535</v>
+        <v>117542.296212302</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -480,7 +480,7 @@
         <v>51506</v>
       </c>
       <c r="I3" t="n">
-        <v>53212.6295104583</v>
+        <v>53251.1326684349</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -491,19 +491,19 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>122166.354597094</v>
+        <v>122468.85501417</v>
       </c>
       <c r="C4" t="n">
-        <v>114854.187439735</v>
+        <v>114042.637136811</v>
       </c>
       <c r="D4" t="n">
-        <v>109785.994456865</v>
+        <v>108964.800808526</v>
       </c>
       <c r="E4" t="n">
-        <v>130170.239973851</v>
+        <v>131484.518144919</v>
       </c>
       <c r="F4" t="n">
-        <v>134728.891099654</v>
+        <v>136561.672072502</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -512,7 +512,7 @@
         <v>88150</v>
       </c>
       <c r="I4" t="n">
-        <v>34016.3545970944</v>
+        <v>34318.8550141701</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -523,19 +523,19 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>112829.988640547</v>
+        <v>113558.374827566</v>
       </c>
       <c r="C5" t="n">
-        <v>103966.088613855</v>
+        <v>105698.5290883</v>
       </c>
       <c r="D5" t="n">
-        <v>100085.313960875</v>
+        <v>101287.030903474</v>
       </c>
       <c r="E5" t="n">
-        <v>121483.524365405</v>
+        <v>122144.107637527</v>
       </c>
       <c r="F5" t="n">
-        <v>126864.551971089</v>
+        <v>125800.673930599</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -544,7 +544,7 @@
         <v>101262</v>
       </c>
       <c r="I5" t="n">
-        <v>11567.988640547</v>
+        <v>12296.374827566</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -555,19 +555,19 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>114127.146448411</v>
+        <v>114547.392610122</v>
       </c>
       <c r="C6" t="n">
-        <v>105352.869041968</v>
+        <v>105837.668756434</v>
       </c>
       <c r="D6" t="n">
-        <v>99998.5323740846</v>
+        <v>100267.517629926</v>
       </c>
       <c r="E6" t="n">
-        <v>123046.746423564</v>
+        <v>124406.584900492</v>
       </c>
       <c r="F6" t="n">
-        <v>127153.317076561</v>
+        <v>126864.506491882</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -576,7 +576,7 @@
         <v>97651</v>
       </c>
       <c r="I6" t="n">
-        <v>16476.1464484107</v>
+        <v>16896.3926101224</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -587,19 +587,19 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>108827.408187655</v>
+        <v>108662.842698279</v>
       </c>
       <c r="C7" t="n">
-        <v>99946.5877053618</v>
+        <v>99303.7371020061</v>
       </c>
       <c r="D7" t="n">
-        <v>94284.1398144522</v>
+        <v>94898.8238988971</v>
       </c>
       <c r="E7" t="n">
-        <v>117806.419450774</v>
+        <v>116705.087497764</v>
       </c>
       <c r="F7" t="n">
-        <v>121455.02833357</v>
+        <v>122894.819834833</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -608,7 +608,7 @@
         <v>99319</v>
       </c>
       <c r="I7" t="n">
-        <v>9508.40818765512</v>
+        <v>9343.84269827924</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -619,19 +619,19 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>113045.262299311</v>
+        <v>112663.690231923</v>
       </c>
       <c r="C8" t="n">
-        <v>103672.882124744</v>
+        <v>102888.136521118</v>
       </c>
       <c r="D8" t="n">
-        <v>98542.1939913047</v>
+        <v>98620.7219289012</v>
       </c>
       <c r="E8" t="n">
-        <v>123124.077652863</v>
+        <v>122552.246473936</v>
       </c>
       <c r="F8" t="n">
-        <v>128383.348295717</v>
+        <v>127120.558130928</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -640,7 +640,7 @@
         <v>102304</v>
       </c>
       <c r="I8" t="n">
-        <v>10741.2622993114</v>
+        <v>10359.6902319231</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -651,19 +651,19 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>111403.409498183</v>
+        <v>112612.534981608</v>
       </c>
       <c r="C9" t="n">
-        <v>101445.653771749</v>
+        <v>102476.346174701</v>
       </c>
       <c r="D9" t="n">
-        <v>96657.2421433898</v>
+        <v>95405.0308088059</v>
       </c>
       <c r="E9" t="n">
-        <v>121250.118147478</v>
+        <v>122454.369662905</v>
       </c>
       <c r="F9" t="n">
-        <v>125936.834876865</v>
+        <v>127516.343843212</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
@@ -672,7 +672,7 @@
         <v>106135</v>
       </c>
       <c r="I9" t="n">
-        <v>5268.40949818272</v>
+        <v>6477.53498160771</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -683,19 +683,19 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>102396.378537706</v>
+        <v>102626.607857952</v>
       </c>
       <c r="C10" t="n">
-        <v>91831.5885866883</v>
+        <v>91206.535704365</v>
       </c>
       <c r="D10" t="n">
-        <v>85902.4954708988</v>
+        <v>85418.9885742391</v>
       </c>
       <c r="E10" t="n">
-        <v>113382.064069446</v>
+        <v>113872.48721678</v>
       </c>
       <c r="F10" t="n">
-        <v>118918.134415095</v>
+        <v>118660.352277695</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -704,7 +704,7 @@
         <v>105377</v>
       </c>
       <c r="I10" t="n">
-        <v>-2980.621462294</v>
+        <v>-2750.39214204774</v>
       </c>
       <c r="J10" t="s">
         <v>12</v>
@@ -715,19 +715,19 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>104820.264003129</v>
+        <v>105014.020807895</v>
       </c>
       <c r="C11" t="n">
-        <v>93772.3345802074</v>
+        <v>93662.930204585</v>
       </c>
       <c r="D11" t="n">
-        <v>87171.0484189142</v>
+        <v>89224.8536440887</v>
       </c>
       <c r="E11" t="n">
-        <v>114196.567208848</v>
+        <v>115703.447733433</v>
       </c>
       <c r="F11" t="n">
-        <v>123559.852232696</v>
+        <v>122399.665805865</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -736,7 +736,7 @@
         <v>95633</v>
       </c>
       <c r="I11" t="n">
-        <v>9187.26400312863</v>
+        <v>9381.02080789517</v>
       </c>
       <c r="J11" t="s">
         <v>11</v>
@@ -747,19 +747,19 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>104256.391683069</v>
+        <v>104572.739083082</v>
       </c>
       <c r="C12" t="n">
-        <v>92757.3634606414</v>
+        <v>93640.0827614319</v>
       </c>
       <c r="D12" t="n">
-        <v>86693.0165751289</v>
+        <v>88507.9914281962</v>
       </c>
       <c r="E12" t="n">
-        <v>115346.961769658</v>
+        <v>115973.51590545</v>
       </c>
       <c r="F12" t="n">
-        <v>121896.756892609</v>
+        <v>122886.73952792</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
@@ -768,7 +768,7 @@
         <v>100561</v>
       </c>
       <c r="I12" t="n">
-        <v>3695.39168306944</v>
+        <v>4011.73908308239</v>
       </c>
       <c r="J12" t="s">
         <v>11</v>
@@ -779,19 +779,19 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>101765.673044874</v>
+        <v>101805.59218013</v>
       </c>
       <c r="C13" t="n">
-        <v>89505.9938073417</v>
+        <v>89810.8129645269</v>
       </c>
       <c r="D13" t="n">
-        <v>83285.417383262</v>
+        <v>85068.5275379869</v>
       </c>
       <c r="E13" t="n">
-        <v>113362.998937621</v>
+        <v>113925.065807591</v>
       </c>
       <c r="F13" t="n">
-        <v>120471.891264355</v>
+        <v>121941.756581899</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -800,7 +800,7 @@
         <v>100209</v>
       </c>
       <c r="I13" t="n">
-        <v>1556.67304487391</v>
+        <v>1596.59218012974</v>
       </c>
       <c r="J13" t="s">
         <v>11</v>
@@ -811,19 +811,19 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>118453.642608347</v>
+        <v>119222.649313691</v>
       </c>
       <c r="C14" t="n">
-        <v>106016.584150019</v>
+        <v>106441.270298606</v>
       </c>
       <c r="D14" t="n">
-        <v>99513.2820638417</v>
+        <v>101186.364680453</v>
       </c>
       <c r="E14" t="n">
-        <v>129635.46763048</v>
+        <v>131601.987046393</v>
       </c>
       <c r="F14" t="n">
-        <v>136287.831993874</v>
+        <v>140796.959894805</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -832,7 +832,7 @@
         <v>98257</v>
       </c>
       <c r="I14" t="n">
-        <v>20196.642608347</v>
+        <v>20965.6493136906</v>
       </c>
       <c r="J14" t="s">
         <v>11</v>
@@ -843,19 +843,19 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>106413.554867846</v>
+        <v>106900.673594163</v>
       </c>
       <c r="C15" t="n">
-        <v>95107.2866266785</v>
+        <v>94229.6922826723</v>
       </c>
       <c r="D15" t="n">
-        <v>90401.7876486272</v>
+        <v>85958.7119996958</v>
       </c>
       <c r="E15" t="n">
-        <v>119185.782892121</v>
+        <v>118690.44003671</v>
       </c>
       <c r="F15" t="n">
-        <v>126533.069581964</v>
+        <v>127569.529356977</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -864,7 +864,7 @@
         <v>83014</v>
       </c>
       <c r="I15" t="n">
-        <v>23399.5548678463</v>
+        <v>23886.6735941632</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -875,19 +875,19 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>124440.146056772</v>
+        <v>124704.331449977</v>
       </c>
       <c r="C16" t="n">
-        <v>111226.454382988</v>
+        <v>110160.035158867</v>
       </c>
       <c r="D16" t="n">
-        <v>105431.553252994</v>
+        <v>102222.239659506</v>
       </c>
       <c r="E16" t="n">
-        <v>136946.356100441</v>
+        <v>138237.206119918</v>
       </c>
       <c r="F16" t="n">
-        <v>143107.771842085</v>
+        <v>145720.260311882</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -896,7 +896,7 @@
         <v>119423</v>
       </c>
       <c r="I16" t="n">
-        <v>5017.14605677246</v>
+        <v>5281.33144997667</v>
       </c>
       <c r="J16" t="s">
         <v>11</v>
@@ -907,19 +907,19 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>115499.057352402</v>
+        <v>115822.217118446</v>
       </c>
       <c r="C17" t="n">
-        <v>102338.338005364</v>
+        <v>100349.758573486</v>
       </c>
       <c r="D17" t="n">
-        <v>97040.6782411646</v>
+        <v>94715.206888038</v>
       </c>
       <c r="E17" t="n">
-        <v>129347.984322046</v>
+        <v>129647.845058824</v>
       </c>
       <c r="F17" t="n">
-        <v>134150.604992839</v>
+        <v>137844.297659525</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -928,7 +928,7 @@
         <v>110385</v>
       </c>
       <c r="I17" t="n">
-        <v>5114.0573524018</v>
+        <v>5437.21711844564</v>
       </c>
       <c r="J17" t="s">
         <v>11</v>
@@ -939,19 +939,19 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>116564.781517856</v>
+        <v>116997.653048323</v>
       </c>
       <c r="C18" t="n">
-        <v>102597.319915317</v>
+        <v>101813.842667098</v>
       </c>
       <c r="D18" t="n">
-        <v>95184.291525414</v>
+        <v>94566.5476290222</v>
       </c>
       <c r="E18" t="n">
-        <v>130280.722198755</v>
+        <v>131424.597224907</v>
       </c>
       <c r="F18" t="n">
-        <v>137673.49051211</v>
+        <v>139125.456530355</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -960,7 +960,7 @@
         <v>105393</v>
       </c>
       <c r="I18" t="n">
-        <v>11171.7815178561</v>
+        <v>11604.6530483234</v>
       </c>
       <c r="J18" t="s">
         <v>11</v>
@@ -971,19 +971,19 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>111381.946196823</v>
+        <v>110989.173696249</v>
       </c>
       <c r="C19" t="n">
-        <v>96098.4669705104</v>
+        <v>96118.2542617856</v>
       </c>
       <c r="D19" t="n">
-        <v>90698.4724197077</v>
+        <v>86478.6856102719</v>
       </c>
       <c r="E19" t="n">
-        <v>125227.493257287</v>
+        <v>125238.086277879</v>
       </c>
       <c r="F19" t="n">
-        <v>133244.937281174</v>
+        <v>134323.435705878</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
@@ -992,7 +992,7 @@
         <v>101633</v>
       </c>
       <c r="I19" t="n">
-        <v>9748.94619682286</v>
+        <v>9356.17369624935</v>
       </c>
       <c r="J19" t="s">
         <v>11</v>
@@ -1003,19 +1003,19 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>114963.097883705</v>
+        <v>115297.767871859</v>
       </c>
       <c r="C20" t="n">
-        <v>99491.6084294341</v>
+        <v>100230.908524711</v>
       </c>
       <c r="D20" t="n">
-        <v>91619.4448570653</v>
+        <v>92343.1662429989</v>
       </c>
       <c r="E20" t="n">
-        <v>130366.903904522</v>
+        <v>129864.8264829</v>
       </c>
       <c r="F20" t="n">
-        <v>138075.799716068</v>
+        <v>137973.018711818</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
@@ -1024,7 +1024,7 @@
         <v>112287</v>
       </c>
       <c r="I20" t="n">
-        <v>2676.09788370541</v>
+        <v>3010.76787185862</v>
       </c>
       <c r="J20" t="s">
         <v>11</v>
@@ -1035,19 +1035,19 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>114393.294324692</v>
+        <v>114274.896828599</v>
       </c>
       <c r="C21" t="n">
-        <v>99829.7930818192</v>
+        <v>98854.18136438</v>
       </c>
       <c r="D21" t="n">
-        <v>94901.350461847</v>
+        <v>89044.0695182668</v>
       </c>
       <c r="E21" t="n">
-        <v>129686.31549302</v>
+        <v>131033.338908607</v>
       </c>
       <c r="F21" t="n">
-        <v>138006.961208726</v>
+        <v>137660.719334005</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
@@ -1056,7 +1056,7 @@
         <v>102061</v>
       </c>
       <c r="I21" t="n">
-        <v>12332.2943246917</v>
+        <v>12213.8968285992</v>
       </c>
       <c r="J21" t="s">
         <v>11</v>
@@ -1067,19 +1067,19 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>105188.413785516</v>
+        <v>104810.872292072</v>
       </c>
       <c r="C22" t="n">
-        <v>89156.8576773166</v>
+        <v>88523.0085026117</v>
       </c>
       <c r="D22" t="n">
-        <v>81539.5799712272</v>
+        <v>79064.2628702151</v>
       </c>
       <c r="E22" t="n">
-        <v>121019.779483947</v>
+        <v>120045.659077304</v>
       </c>
       <c r="F22" t="n">
-        <v>129036.443888198</v>
+        <v>130785.341300392</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
@@ -1088,7 +1088,7 @@
         <v>101701</v>
       </c>
       <c r="I22" t="n">
-        <v>3487.41378551627</v>
+        <v>3109.87229207152</v>
       </c>
       <c r="J22" t="s">
         <v>11</v>
@@ -1099,19 +1099,19 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>107708.479112222</v>
+        <v>107261.919040951</v>
       </c>
       <c r="C23" t="n">
-        <v>92701.1247551019</v>
+        <v>91107.8255710987</v>
       </c>
       <c r="D23" t="n">
-        <v>82029.2492604141</v>
+        <v>82035.0034693137</v>
       </c>
       <c r="E23" t="n">
-        <v>123895.085127524</v>
+        <v>123821.151941649</v>
       </c>
       <c r="F23" t="n">
-        <v>131558.173998043</v>
+        <v>132534.689062228</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
@@ -1120,7 +1120,7 @@
         <v>95942</v>
       </c>
       <c r="I23" t="n">
-        <v>11766.4791122215</v>
+        <v>11319.9190409507</v>
       </c>
       <c r="J23" t="s">
         <v>11</v>
@@ -1131,19 +1131,19 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>107071.291203015</v>
+        <v>106921.593202484</v>
       </c>
       <c r="C24" t="n">
-        <v>91079.5718025939</v>
+        <v>89330.3957128194</v>
       </c>
       <c r="D24" t="n">
-        <v>83160.7647275824</v>
+        <v>80757.1922868491</v>
       </c>
       <c r="E24" t="n">
-        <v>122417.850004726</v>
+        <v>124408.602160026</v>
       </c>
       <c r="F24" t="n">
-        <v>130588.045579304</v>
+        <v>133324.913846997</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -1152,7 +1152,7 @@
         <v>102598</v>
       </c>
       <c r="I24" t="n">
-        <v>4473.29120301481</v>
+        <v>4323.59320248356</v>
       </c>
       <c r="J24" t="s">
         <v>11</v>
@@ -1163,19 +1163,19 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>104052.76134531</v>
+        <v>104805.664416767</v>
       </c>
       <c r="C25" t="n">
-        <v>88181.9828967717</v>
+        <v>87007.4788827258</v>
       </c>
       <c r="D25" t="n">
-        <v>79451.6719162365</v>
+        <v>76335.72321554</v>
       </c>
       <c r="E25" t="n">
-        <v>119103.94244957</v>
+        <v>120314.675528152</v>
       </c>
       <c r="F25" t="n">
-        <v>128988.012946249</v>
+        <v>131631.598262281</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
@@ -1184,7 +1184,7 @@
         <v>108157</v>
       </c>
       <c r="I25" t="n">
-        <v>-4104.23865468965</v>
+        <v>-3351.33558323284</v>
       </c>
       <c r="J25" t="s">
         <v>12</v>
@@ -1195,19 +1195,19 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>121680.429065684</v>
+        <v>122200.746917029</v>
       </c>
       <c r="C26" t="n">
-        <v>105687.559195978</v>
+        <v>104045.20150317</v>
       </c>
       <c r="D26" t="n">
-        <v>98364.0296017987</v>
+        <v>94837.308966703</v>
       </c>
       <c r="E26" t="n">
-        <v>137074.610036605</v>
+        <v>140568.559373607</v>
       </c>
       <c r="F26" t="n">
-        <v>147202.509355452</v>
+        <v>151011.638322512</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -1216,7 +1216,7 @@
         <v>109531</v>
       </c>
       <c r="I26" t="n">
-        <v>12149.4290656843</v>
+        <v>12669.7469170287</v>
       </c>
       <c r="J26" t="s">
         <v>11</v>
@@ -1227,19 +1227,19 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>109092.833169256</v>
+        <v>109612.42669528</v>
       </c>
       <c r="C27" t="n">
-        <v>92627.0698990498</v>
+        <v>91487.2638533901</v>
       </c>
       <c r="D27" t="n">
-        <v>84695.0386982211</v>
+        <v>81167.0723394638</v>
       </c>
       <c r="E27" t="n">
-        <v>125786.568589146</v>
+        <v>127547.959144637</v>
       </c>
       <c r="F27" t="n">
-        <v>132883.701207796</v>
+        <v>141923.707273081</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
@@ -1248,7 +1248,7 @@
         <v>96787</v>
       </c>
       <c r="I27" t="n">
-        <v>12305.8331692557</v>
+        <v>12825.42669528</v>
       </c>
       <c r="J27" t="s">
         <v>11</v>
@@ -1259,19 +1259,19 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>126853.807097693</v>
+        <v>127613.429518442</v>
       </c>
       <c r="C28" t="n">
-        <v>109088.385382391</v>
+        <v>107347.736631755</v>
       </c>
       <c r="D28" t="n">
-        <v>100960.358467701</v>
+        <v>99254.6021988732</v>
       </c>
       <c r="E28" t="n">
-        <v>144109.266940795</v>
+        <v>146937.652883882</v>
       </c>
       <c r="F28" t="n">
-        <v>152255.270095596</v>
+        <v>159387.548534048</v>
       </c>
       <c r="G28" t="s">
         <v>10</v>
@@ -1280,7 +1280,7 @@
         <v>114003</v>
       </c>
       <c r="I28" t="n">
-        <v>12850.8070976929</v>
+        <v>13610.429518442</v>
       </c>
       <c r="J28" t="s">
         <v>11</v>
@@ -1291,19 +1291,19 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>118368.188307353</v>
+        <v>118473.653036166</v>
       </c>
       <c r="C29" t="n">
-        <v>100458.050573005</v>
+        <v>99596.031588816</v>
       </c>
       <c r="D29" t="n">
-        <v>91318.5115220534</v>
+        <v>88067.8045135125</v>
       </c>
       <c r="E29" t="n">
-        <v>136247.624986437</v>
+        <v>135889.296938418</v>
       </c>
       <c r="F29" t="n">
-        <v>147471.909256825</v>
+        <v>150263.094560563</v>
       </c>
       <c r="G29" t="s">
         <v>10</v>
@@ -1312,7 +1312,7 @@
         <v>95933</v>
       </c>
       <c r="I29" t="n">
-        <v>22435.1883073534</v>
+        <v>22540.6530361663</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -1323,19 +1323,19 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>119637.414084486</v>
+        <v>120156.293858887</v>
       </c>
       <c r="C30" t="n">
-        <v>101941.145479175</v>
+        <v>100697.281534854</v>
       </c>
       <c r="D30" t="n">
-        <v>92830.8505147479</v>
+        <v>90098.4715602684</v>
       </c>
       <c r="E30" t="n">
-        <v>137198.552386949</v>
+        <v>139308.275197773</v>
       </c>
       <c r="F30" t="n">
-        <v>147848.319691195</v>
+        <v>151159.762283485</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -1344,7 +1344,7 @@
         <v>102912</v>
       </c>
       <c r="I30" t="n">
-        <v>16725.4140844863</v>
+        <v>17244.2938588866</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -1355,19 +1355,19 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>113858.238059371</v>
+        <v>114466.834653459</v>
       </c>
       <c r="C31" t="n">
-        <v>95512.4776526372</v>
+        <v>94879.6457153589</v>
       </c>
       <c r="D31" t="n">
-        <v>85296.9546050051</v>
+        <v>81582.5995611227</v>
       </c>
       <c r="E31" t="n">
-        <v>132561.19622166</v>
+        <v>133355.678136369</v>
       </c>
       <c r="F31" t="n">
-        <v>141933.780831529</v>
+        <v>145105.615262128</v>
       </c>
       <c r="G31" t="s">
         <v>10</v>
@@ -1376,7 +1376,7 @@
         <v>106846</v>
       </c>
       <c r="I31" t="n">
-        <v>7012.23805937059</v>
+        <v>7620.83465345946</v>
       </c>
       <c r="J31" t="s">
         <v>11</v>
@@ -1387,19 +1387,19 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>118354.434068997</v>
+        <v>118761.748057009</v>
       </c>
       <c r="C32" t="n">
-        <v>100200.229070678</v>
+        <v>100003.565954343</v>
       </c>
       <c r="D32" t="n">
-        <v>92405.8972015443</v>
+        <v>87121.4442581327</v>
       </c>
       <c r="E32" t="n">
-        <v>135812.825547334</v>
+        <v>137062.935431591</v>
       </c>
       <c r="F32" t="n">
-        <v>149692.930472644</v>
+        <v>148516.313456663</v>
       </c>
       <c r="G32" t="s">
         <v>10</v>
@@ -1408,7 +1408,7 @@
         <v>112648</v>
       </c>
       <c r="I32" t="n">
-        <v>5706.43406899655</v>
+        <v>6113.74805700936</v>
       </c>
       <c r="J32" t="s">
         <v>11</v>
@@ -1419,19 +1419,19 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>117737.929652209</v>
+        <v>117855.446941428</v>
       </c>
       <c r="C33" t="n">
-        <v>99987.2233681238</v>
+        <v>98453.7563288153</v>
       </c>
       <c r="D33" t="n">
-        <v>90270.5938551342</v>
+        <v>87614.127690518</v>
       </c>
       <c r="E33" t="n">
-        <v>136400.852405078</v>
+        <v>137422.273891974</v>
       </c>
       <c r="F33" t="n">
-        <v>147684.542617497</v>
+        <v>151493.06965877</v>
       </c>
       <c r="G33" t="s">
         <v>10</v>
@@ -1440,7 +1440,7 @@
         <v>115375</v>
       </c>
       <c r="I33" t="n">
-        <v>2362.92965220944</v>
+        <v>2480.44694142835</v>
       </c>
       <c r="J33" t="s">
         <v>11</v>
@@ -1451,19 +1451,19 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>107756.076607947</v>
+        <v>108023.422856612</v>
       </c>
       <c r="C34" t="n">
-        <v>89101.1567185516</v>
+        <v>88005.7564883322</v>
       </c>
       <c r="D34" t="n">
-        <v>80503.4812676059</v>
+        <v>75890.4944643074</v>
       </c>
       <c r="E34" t="n">
-        <v>125861.147274794</v>
+        <v>128071.888901171</v>
       </c>
       <c r="F34" t="n">
-        <v>141037.900707482</v>
+        <v>142144.609480861</v>
       </c>
       <c r="G34" t="s">
         <v>10</v>
@@ -1472,7 +1472,7 @@
         <v>101083</v>
       </c>
       <c r="I34" t="n">
-        <v>6673.07660794702</v>
+        <v>6940.42285661197</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
@@ -1483,19 +1483,19 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>109872.532695084</v>
+        <v>110628.6072974</v>
       </c>
       <c r="C35" t="n">
-        <v>90586.4866938394</v>
+        <v>89654.5929300151</v>
       </c>
       <c r="D35" t="n">
-        <v>82670.5919493933</v>
+        <v>74824.3199815456</v>
       </c>
       <c r="E35" t="n">
-        <v>128913.666243467</v>
+        <v>132495.934691476</v>
       </c>
       <c r="F35" t="n">
-        <v>143049.923011596</v>
+        <v>143354.659058063</v>
       </c>
       <c r="G35" t="s">
         <v>10</v>
@@ -1504,7 +1504,7 @@
         <v>90015</v>
       </c>
       <c r="I35" t="n">
-        <v>19857.5326950844</v>
+        <v>20613.6072974003</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -1515,19 +1515,19 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>109842.965939388</v>
+        <v>109849.515893243</v>
       </c>
       <c r="C36" t="n">
-        <v>89984.0728541256</v>
+        <v>87880.6808948668</v>
       </c>
       <c r="D36" t="n">
-        <v>81551.2226422134</v>
+        <v>74692.2389350901</v>
       </c>
       <c r="E36" t="n">
-        <v>128482.01944643</v>
+        <v>132422.064506513</v>
       </c>
       <c r="F36" t="n">
-        <v>144314.499313083</v>
+        <v>142185.897129592</v>
       </c>
       <c r="G36" t="s">
         <v>10</v>
@@ -1536,7 +1536,7 @@
         <v>86371</v>
       </c>
       <c r="I36" t="n">
-        <v>23471.9659393885</v>
+        <v>23478.515893243</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
@@ -1547,19 +1547,19 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>106869.298865731</v>
+        <v>107108.168011378</v>
       </c>
       <c r="C37" t="n">
-        <v>87733.5382534616</v>
+        <v>85251.0491857538</v>
       </c>
       <c r="D37" t="n">
-        <v>77796.7961512668</v>
+        <v>70308.7986065481</v>
       </c>
       <c r="E37" t="n">
-        <v>127100.787560981</v>
+        <v>128663.350559697</v>
       </c>
       <c r="F37" t="n">
-        <v>141131.355222311</v>
+        <v>140529.357264065</v>
       </c>
       <c r="G37" t="s">
         <v>10</v>
@@ -1568,7 +1568,7 @@
         <v>59498</v>
       </c>
       <c r="I37" t="n">
-        <v>47371.2988657311</v>
+        <v>47610.1680113778</v>
       </c>
       <c r="J37" t="s">
         <v>11</v>
@@ -1579,19 +1579,19 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>124682.036415846</v>
+        <v>124553.169679218</v>
       </c>
       <c r="C38" t="n">
-        <v>104316.053853821</v>
+        <v>102758.408882398</v>
       </c>
       <c r="D38" t="n">
-        <v>94891.0772666397</v>
+        <v>91697.7616968042</v>
       </c>
       <c r="E38" t="n">
-        <v>145238.560740731</v>
+        <v>146464.890254026</v>
       </c>
       <c r="F38" t="n">
-        <v>158870.231030571</v>
+        <v>161103.676768077</v>
       </c>
       <c r="G38" t="s">
         <v>10</v>
@@ -1600,7 +1600,7 @@
         <v>74790</v>
       </c>
       <c r="I38" t="n">
-        <v>49892.0364158461</v>
+        <v>49763.1696792177</v>
       </c>
       <c r="J38" t="s">
         <v>11</v>
@@ -1611,19 +1611,19 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>112391.981068654</v>
+        <v>112696.587445235</v>
       </c>
       <c r="C39" t="n">
-        <v>90631.224547808</v>
+        <v>89394.3002977383</v>
       </c>
       <c r="D39" t="n">
-        <v>80828.659820766</v>
+        <v>78925.0738295481</v>
       </c>
       <c r="E39" t="n">
-        <v>132614.436945682</v>
+        <v>134828.094935167</v>
       </c>
       <c r="F39" t="n">
-        <v>145151.004854928</v>
+        <v>150187.427894244</v>
       </c>
       <c r="G39" t="s">
         <v>10</v>
@@ -1632,7 +1632,7 @@
         <v>116063</v>
       </c>
       <c r="I39" t="n">
-        <v>-3671.01893134645</v>
+        <v>-3366.41255476534</v>
       </c>
       <c r="J39" t="s">
         <v>12</v>
@@ -1643,19 +1643,19 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>129925.280059598</v>
+        <v>130241.435878168</v>
       </c>
       <c r="C40" t="n">
-        <v>106944.63433068</v>
+        <v>106693.556200773</v>
       </c>
       <c r="D40" t="n">
-        <v>97500.6931840796</v>
+        <v>95770.0575545591</v>
       </c>
       <c r="E40" t="n">
-        <v>151082.164988652</v>
+        <v>152136.139817167</v>
       </c>
       <c r="F40" t="n">
-        <v>166072.053042629</v>
+        <v>168414.259364816</v>
       </c>
       <c r="G40" t="s">
         <v>10</v>
@@ -1664,7 +1664,7 @@
         <v>126932</v>
       </c>
       <c r="I40" t="n">
-        <v>2993.28005959792</v>
+        <v>3309.43587816766</v>
       </c>
       <c r="J40" t="s">
         <v>11</v>

--- a/outcome/appendix/data/Epidemic/HBV.xlsx
+++ b/outcome/appendix/data/Epidemic/HBV.xlsx
@@ -427,19 +427,19 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>116352.654898389</v>
+        <v>116697.836318996</v>
       </c>
       <c r="C2" t="n">
-        <v>109684.099084127</v>
+        <v>108796.220655185</v>
       </c>
       <c r="D2" t="n">
-        <v>106976.019606426</v>
+        <v>104952.645916324</v>
       </c>
       <c r="E2" t="n">
-        <v>123643.727864597</v>
+        <v>124919.968583268</v>
       </c>
       <c r="F2" t="n">
-        <v>126367.145507742</v>
+        <v>130094.722247052</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -448,7 +448,7 @@
         <v>91026</v>
       </c>
       <c r="I2" t="n">
-        <v>25326.6548983892</v>
+        <v>25671.8363189964</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -459,19 +459,19 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>104757.132668435</v>
+        <v>104326.004799546</v>
       </c>
       <c r="C3" t="n">
-        <v>96607.8830655305</v>
+        <v>96508.3180848677</v>
       </c>
       <c r="D3" t="n">
-        <v>92453.3238106485</v>
+        <v>92700.1827766689</v>
       </c>
       <c r="E3" t="n">
-        <v>112330.730677867</v>
+        <v>111770.011625949</v>
       </c>
       <c r="F3" t="n">
-        <v>117542.296212302</v>
+        <v>115278.504384519</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -480,7 +480,7 @@
         <v>51506</v>
       </c>
       <c r="I3" t="n">
-        <v>53251.1326684349</v>
+        <v>52820.0047995462</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -491,19 +491,19 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>122468.85501417</v>
+        <v>121892.686041899</v>
       </c>
       <c r="C4" t="n">
-        <v>114042.637136811</v>
+        <v>113213.630385227</v>
       </c>
       <c r="D4" t="n">
-        <v>108964.800808526</v>
+        <v>109819.423042992</v>
       </c>
       <c r="E4" t="n">
-        <v>131484.518144919</v>
+        <v>130002.689920775</v>
       </c>
       <c r="F4" t="n">
-        <v>136561.672072502</v>
+        <v>136630.010868609</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -512,7 +512,7 @@
         <v>88150</v>
       </c>
       <c r="I4" t="n">
-        <v>34318.8550141701</v>
+        <v>33742.6860418994</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -523,19 +523,19 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>113558.374827566</v>
+        <v>113318.49243099</v>
       </c>
       <c r="C5" t="n">
-        <v>105698.5290883</v>
+        <v>104200.629931617</v>
       </c>
       <c r="D5" t="n">
-        <v>101287.030903474</v>
+        <v>100917.730737264</v>
       </c>
       <c r="E5" t="n">
-        <v>122144.107637527</v>
+        <v>122409.620340726</v>
       </c>
       <c r="F5" t="n">
-        <v>125800.673930599</v>
+        <v>128164.951097735</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -544,7 +544,7 @@
         <v>101262</v>
       </c>
       <c r="I5" t="n">
-        <v>12296.374827566</v>
+        <v>12056.4924309904</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -555,19 +555,19 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>114547.392610122</v>
+        <v>114519.613733229</v>
       </c>
       <c r="C6" t="n">
-        <v>105837.668756434</v>
+        <v>105318.734066067</v>
       </c>
       <c r="D6" t="n">
-        <v>100267.517629926</v>
+        <v>99690.4308913987</v>
       </c>
       <c r="E6" t="n">
-        <v>124406.584900492</v>
+        <v>123622.150778757</v>
       </c>
       <c r="F6" t="n">
-        <v>126864.506491882</v>
+        <v>129412.411617996</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -576,7 +576,7 @@
         <v>97651</v>
       </c>
       <c r="I6" t="n">
-        <v>16896.3926101224</v>
+        <v>16868.6137332294</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -587,19 +587,19 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>108662.842698279</v>
+        <v>108807.511491863</v>
       </c>
       <c r="C7" t="n">
-        <v>99303.7371020061</v>
+        <v>98706.0243845419</v>
       </c>
       <c r="D7" t="n">
-        <v>94898.8238988971</v>
+        <v>94280.4284108927</v>
       </c>
       <c r="E7" t="n">
-        <v>116705.087497764</v>
+        <v>119702.294766388</v>
       </c>
       <c r="F7" t="n">
-        <v>122894.819834833</v>
+        <v>123847.416159765</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -608,7 +608,7 @@
         <v>99319</v>
       </c>
       <c r="I7" t="n">
-        <v>9343.84269827924</v>
+        <v>9488.51149186287</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -619,19 +619,19 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>112663.690231923</v>
+        <v>112820.234006946</v>
       </c>
       <c r="C8" t="n">
-        <v>102888.136521118</v>
+        <v>102381.771028427</v>
       </c>
       <c r="D8" t="n">
-        <v>98620.7219289012</v>
+        <v>97181.8209706125</v>
       </c>
       <c r="E8" t="n">
-        <v>122552.246473936</v>
+        <v>123232.84348403</v>
       </c>
       <c r="F8" t="n">
-        <v>127120.558130928</v>
+        <v>129425.431638308</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -640,7 +640,7 @@
         <v>102304</v>
       </c>
       <c r="I8" t="n">
-        <v>10359.6902319231</v>
+        <v>10516.2340069457</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -651,19 +651,19 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>112612.534981608</v>
+        <v>111796.469687237</v>
       </c>
       <c r="C9" t="n">
-        <v>102476.346174701</v>
+        <v>100899.219544795</v>
       </c>
       <c r="D9" t="n">
-        <v>95405.0308088059</v>
+        <v>94814.567904798</v>
       </c>
       <c r="E9" t="n">
-        <v>122454.369662905</v>
+        <v>123308.356534172</v>
       </c>
       <c r="F9" t="n">
-        <v>127516.343843212</v>
+        <v>128963.449580624</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
@@ -672,7 +672,7 @@
         <v>106135</v>
       </c>
       <c r="I9" t="n">
-        <v>6477.53498160771</v>
+        <v>5661.46968723697</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -683,19 +683,19 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>102626.607857952</v>
+        <v>102629.595675564</v>
       </c>
       <c r="C10" t="n">
-        <v>91206.535704365</v>
+        <v>90829.0915847571</v>
       </c>
       <c r="D10" t="n">
-        <v>85418.9885742391</v>
+        <v>84147.8919826373</v>
       </c>
       <c r="E10" t="n">
-        <v>113872.48721678</v>
+        <v>114532.989332052</v>
       </c>
       <c r="F10" t="n">
-        <v>118660.352277695</v>
+        <v>119727.863015632</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -704,7 +704,7 @@
         <v>105377</v>
       </c>
       <c r="I10" t="n">
-        <v>-2750.39214204774</v>
+        <v>-2747.40432443614</v>
       </c>
       <c r="J10" t="s">
         <v>12</v>
@@ -715,19 +715,19 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>105014.020807895</v>
+        <v>104726.417135366</v>
       </c>
       <c r="C11" t="n">
-        <v>93662.930204585</v>
+        <v>93344.6021751029</v>
       </c>
       <c r="D11" t="n">
-        <v>89224.8536440887</v>
+        <v>85959.0271756483</v>
       </c>
       <c r="E11" t="n">
-        <v>115703.447733433</v>
+        <v>116593.183202054</v>
       </c>
       <c r="F11" t="n">
-        <v>122399.665805865</v>
+        <v>122237.72374345</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -736,7 +736,7 @@
         <v>95633</v>
       </c>
       <c r="I11" t="n">
-        <v>9381.02080789517</v>
+        <v>9093.41713536596</v>
       </c>
       <c r="J11" t="s">
         <v>11</v>
@@ -747,19 +747,19 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>104572.739083082</v>
+        <v>104876.237342271</v>
       </c>
       <c r="C12" t="n">
-        <v>93640.0827614319</v>
+        <v>92776.2814172262</v>
       </c>
       <c r="D12" t="n">
-        <v>88507.9914281962</v>
+        <v>86979.005158413</v>
       </c>
       <c r="E12" t="n">
-        <v>115973.51590545</v>
+        <v>116928.197771743</v>
       </c>
       <c r="F12" t="n">
-        <v>122886.73952792</v>
+        <v>123748.762973706</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
@@ -768,7 +768,7 @@
         <v>100561</v>
       </c>
       <c r="I12" t="n">
-        <v>4011.73908308239</v>
+        <v>4315.2373422708</v>
       </c>
       <c r="J12" t="s">
         <v>11</v>
@@ -779,19 +779,19 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>101805.59218013</v>
+        <v>101613.781521199</v>
       </c>
       <c r="C13" t="n">
-        <v>89810.8129645269</v>
+        <v>87684.8087646816</v>
       </c>
       <c r="D13" t="n">
-        <v>85068.5275379869</v>
+        <v>81507.5858539772</v>
       </c>
       <c r="E13" t="n">
-        <v>113925.065807591</v>
+        <v>113720.470208704</v>
       </c>
       <c r="F13" t="n">
-        <v>121941.756581899</v>
+        <v>120757.047785379</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -800,7 +800,7 @@
         <v>100209</v>
       </c>
       <c r="I13" t="n">
-        <v>1596.59218012974</v>
+        <v>1404.78152119939</v>
       </c>
       <c r="J13" t="s">
         <v>11</v>
@@ -811,19 +811,19 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>119222.649313691</v>
+        <v>119149.94735983</v>
       </c>
       <c r="C14" t="n">
-        <v>106441.270298606</v>
+        <v>106569.601649526</v>
       </c>
       <c r="D14" t="n">
-        <v>101186.364680453</v>
+        <v>97445.1430978986</v>
       </c>
       <c r="E14" t="n">
-        <v>131601.987046393</v>
+        <v>132961.936386009</v>
       </c>
       <c r="F14" t="n">
-        <v>140796.959894805</v>
+        <v>139178.449652833</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -832,7 +832,7 @@
         <v>98257</v>
       </c>
       <c r="I14" t="n">
-        <v>20965.6493136906</v>
+        <v>20892.9473598303</v>
       </c>
       <c r="J14" t="s">
         <v>11</v>
@@ -843,19 +843,19 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>106900.673594163</v>
+        <v>107055.7128206</v>
       </c>
       <c r="C15" t="n">
-        <v>94229.6922826723</v>
+        <v>93662.067273364</v>
       </c>
       <c r="D15" t="n">
-        <v>85958.7119996958</v>
+        <v>84783.8266574478</v>
       </c>
       <c r="E15" t="n">
-        <v>118690.44003671</v>
+        <v>121028.893537346</v>
       </c>
       <c r="F15" t="n">
-        <v>127569.529356977</v>
+        <v>128239.31015308</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -864,7 +864,7 @@
         <v>83014</v>
       </c>
       <c r="I15" t="n">
-        <v>23886.6735941632</v>
+        <v>24041.7128206</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -875,19 +875,19 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>124704.331449977</v>
+        <v>124681.748074223</v>
       </c>
       <c r="C16" t="n">
-        <v>110160.035158867</v>
+        <v>111434.700824813</v>
       </c>
       <c r="D16" t="n">
-        <v>102222.239659506</v>
+        <v>102224.188180103</v>
       </c>
       <c r="E16" t="n">
-        <v>138237.206119918</v>
+        <v>138266.908391548</v>
       </c>
       <c r="F16" t="n">
-        <v>145720.260311882</v>
+        <v>148311.042280591</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -896,7 +896,7 @@
         <v>119423</v>
       </c>
       <c r="I16" t="n">
-        <v>5281.33144997667</v>
+        <v>5258.74807422332</v>
       </c>
       <c r="J16" t="s">
         <v>11</v>
@@ -907,19 +907,19 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>115822.217118446</v>
+        <v>115305.66159837</v>
       </c>
       <c r="C17" t="n">
-        <v>100349.758573486</v>
+        <v>100801.913630374</v>
       </c>
       <c r="D17" t="n">
-        <v>94715.206888038</v>
+        <v>92316.1814203385</v>
       </c>
       <c r="E17" t="n">
-        <v>129647.845058824</v>
+        <v>129029.458341006</v>
       </c>
       <c r="F17" t="n">
-        <v>137844.297659525</v>
+        <v>136380.148982306</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -928,7 +928,7 @@
         <v>110385</v>
       </c>
       <c r="I17" t="n">
-        <v>5437.21711844564</v>
+        <v>4920.66159836983</v>
       </c>
       <c r="J17" t="s">
         <v>11</v>
@@ -939,19 +939,19 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>116997.653048323</v>
+        <v>116597.144031518</v>
       </c>
       <c r="C18" t="n">
-        <v>101813.842667098</v>
+        <v>102409.719998351</v>
       </c>
       <c r="D18" t="n">
-        <v>94566.5476290222</v>
+        <v>92509.903886299</v>
       </c>
       <c r="E18" t="n">
-        <v>131424.597224907</v>
+        <v>130988.284993117</v>
       </c>
       <c r="F18" t="n">
-        <v>139125.456530355</v>
+        <v>140003.591276977</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -960,7 +960,7 @@
         <v>105393</v>
       </c>
       <c r="I18" t="n">
-        <v>11604.6530483234</v>
+        <v>11204.1440315181</v>
       </c>
       <c r="J18" t="s">
         <v>11</v>
@@ -971,19 +971,19 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>110989.173696249</v>
+        <v>111376.005495482</v>
       </c>
       <c r="C19" t="n">
-        <v>96118.2542617856</v>
+        <v>96929.2098495315</v>
       </c>
       <c r="D19" t="n">
-        <v>86478.6856102719</v>
+        <v>88070.6294673093</v>
       </c>
       <c r="E19" t="n">
-        <v>125238.086277879</v>
+        <v>125363.0168913</v>
       </c>
       <c r="F19" t="n">
-        <v>134323.435705878</v>
+        <v>134264.17846838</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
@@ -992,7 +992,7 @@
         <v>101633</v>
       </c>
       <c r="I19" t="n">
-        <v>9356.17369624935</v>
+        <v>9743.00549548186</v>
       </c>
       <c r="J19" t="s">
         <v>11</v>
@@ -1003,19 +1003,19 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>115297.767871859</v>
+        <v>115056.29437198</v>
       </c>
       <c r="C20" t="n">
-        <v>100230.908524711</v>
+        <v>99826.5427249482</v>
       </c>
       <c r="D20" t="n">
-        <v>92343.1662429989</v>
+        <v>90872.3711421642</v>
       </c>
       <c r="E20" t="n">
-        <v>129864.8264829</v>
+        <v>129421.550281991</v>
       </c>
       <c r="F20" t="n">
-        <v>137973.018711818</v>
+        <v>139949.28274083</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
@@ -1024,7 +1024,7 @@
         <v>112287</v>
       </c>
       <c r="I20" t="n">
-        <v>3010.76787185862</v>
+        <v>2769.2943719796</v>
       </c>
       <c r="J20" t="s">
         <v>11</v>
@@ -1035,19 +1035,19 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>114274.896828599</v>
+        <v>114683.277180079</v>
       </c>
       <c r="C21" t="n">
-        <v>98854.18136438</v>
+        <v>99871.3285249414</v>
       </c>
       <c r="D21" t="n">
-        <v>89044.0695182668</v>
+        <v>90327.9621770071</v>
       </c>
       <c r="E21" t="n">
-        <v>131033.338908607</v>
+        <v>130898.494640403</v>
       </c>
       <c r="F21" t="n">
-        <v>137660.719334005</v>
+        <v>138855.521494938</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
@@ -1056,7 +1056,7 @@
         <v>102061</v>
       </c>
       <c r="I21" t="n">
-        <v>12213.8968285992</v>
+        <v>12622.277180079</v>
       </c>
       <c r="J21" t="s">
         <v>11</v>
@@ -1067,19 +1067,19 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>104810.872292072</v>
+        <v>104874.759405554</v>
       </c>
       <c r="C22" t="n">
-        <v>88523.0085026117</v>
+        <v>89102.3710328425</v>
       </c>
       <c r="D22" t="n">
-        <v>79064.2628702151</v>
+        <v>82116.9868991506</v>
       </c>
       <c r="E22" t="n">
-        <v>120045.659077304</v>
+        <v>120268.565442404</v>
       </c>
       <c r="F22" t="n">
-        <v>130785.341300392</v>
+        <v>129628.359041328</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
@@ -1088,7 +1088,7 @@
         <v>101701</v>
       </c>
       <c r="I22" t="n">
-        <v>3109.87229207152</v>
+        <v>3173.75940555363</v>
       </c>
       <c r="J22" t="s">
         <v>11</v>
@@ -1099,19 +1099,19 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>107261.919040951</v>
+        <v>106887.541214457</v>
       </c>
       <c r="C23" t="n">
-        <v>91107.8255710987</v>
+        <v>90847.5713890427</v>
       </c>
       <c r="D23" t="n">
-        <v>82035.0034693137</v>
+        <v>79931.6242424285</v>
       </c>
       <c r="E23" t="n">
-        <v>123821.151941649</v>
+        <v>122926.673749609</v>
       </c>
       <c r="F23" t="n">
-        <v>132534.689062228</v>
+        <v>133463.545350233</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
@@ -1120,7 +1120,7 @@
         <v>95942</v>
       </c>
       <c r="I23" t="n">
-        <v>11319.9190409507</v>
+        <v>10945.5412144566</v>
       </c>
       <c r="J23" t="s">
         <v>11</v>
@@ -1131,19 +1131,19 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>106921.593202484</v>
+        <v>106396.856783558</v>
       </c>
       <c r="C24" t="n">
-        <v>89330.3957128194</v>
+        <v>89070.4501339401</v>
       </c>
       <c r="D24" t="n">
-        <v>80757.1922868491</v>
+        <v>81266.6076600328</v>
       </c>
       <c r="E24" t="n">
-        <v>124408.602160026</v>
+        <v>122866.727630369</v>
       </c>
       <c r="F24" t="n">
-        <v>133324.913846997</v>
+        <v>133885.911772608</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -1152,7 +1152,7 @@
         <v>102598</v>
       </c>
       <c r="I24" t="n">
-        <v>4323.59320248356</v>
+        <v>3798.85678355781</v>
       </c>
       <c r="J24" t="s">
         <v>11</v>
@@ -1163,19 +1163,19 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>104805.664416767</v>
+        <v>104357.153954269</v>
       </c>
       <c r="C25" t="n">
-        <v>87007.4788827258</v>
+        <v>87327.6580561718</v>
       </c>
       <c r="D25" t="n">
-        <v>76335.72321554</v>
+        <v>79673.5851914893</v>
       </c>
       <c r="E25" t="n">
-        <v>120314.675528152</v>
+        <v>120543.033730009</v>
       </c>
       <c r="F25" t="n">
-        <v>131631.598262281</v>
+        <v>131109.892776644</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
@@ -1184,7 +1184,7 @@
         <v>108157</v>
       </c>
       <c r="I25" t="n">
-        <v>-3351.33558323284</v>
+        <v>-3799.84604573103</v>
       </c>
       <c r="J25" t="s">
         <v>12</v>
@@ -1195,19 +1195,19 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>122200.746917029</v>
+        <v>120983.653013906</v>
       </c>
       <c r="C26" t="n">
-        <v>104045.20150317</v>
+        <v>103985.873459909</v>
       </c>
       <c r="D26" t="n">
-        <v>94837.308966703</v>
+        <v>95129.0851412385</v>
       </c>
       <c r="E26" t="n">
-        <v>140568.559373607</v>
+        <v>137728.133783487</v>
       </c>
       <c r="F26" t="n">
-        <v>151011.638322512</v>
+        <v>148864.937033519</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -1216,7 +1216,7 @@
         <v>109531</v>
       </c>
       <c r="I26" t="n">
-        <v>12669.7469170287</v>
+        <v>11452.6530139061</v>
       </c>
       <c r="J26" t="s">
         <v>11</v>
@@ -1227,19 +1227,19 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>109612.42669528</v>
+        <v>108906.190923625</v>
       </c>
       <c r="C27" t="n">
-        <v>91487.2638533901</v>
+        <v>91904.2142756739</v>
       </c>
       <c r="D27" t="n">
-        <v>81167.0723394638</v>
+        <v>80806.1686044425</v>
       </c>
       <c r="E27" t="n">
-        <v>127547.959144637</v>
+        <v>126494.79352338</v>
       </c>
       <c r="F27" t="n">
-        <v>141923.707273081</v>
+        <v>139631.800847185</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
@@ -1248,7 +1248,7 @@
         <v>96787</v>
       </c>
       <c r="I27" t="n">
-        <v>12825.42669528</v>
+        <v>12119.1909236248</v>
       </c>
       <c r="J27" t="s">
         <v>11</v>
@@ -1259,19 +1259,19 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>127613.429518442</v>
+        <v>126253.420625637</v>
       </c>
       <c r="C28" t="n">
-        <v>107347.736631755</v>
+        <v>107384.281984111</v>
       </c>
       <c r="D28" t="n">
-        <v>99254.6021988732</v>
+        <v>98023.4117265828</v>
       </c>
       <c r="E28" t="n">
-        <v>146937.652883882</v>
+        <v>145418.468551656</v>
       </c>
       <c r="F28" t="n">
-        <v>159387.548534048</v>
+        <v>158072.012247063</v>
       </c>
       <c r="G28" t="s">
         <v>10</v>
@@ -1280,7 +1280,7 @@
         <v>114003</v>
       </c>
       <c r="I28" t="n">
-        <v>13610.429518442</v>
+        <v>12250.4206256368</v>
       </c>
       <c r="J28" t="s">
         <v>11</v>
@@ -1291,19 +1291,19 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>118473.653036166</v>
+        <v>117746.212815661</v>
       </c>
       <c r="C29" t="n">
-        <v>99596.031588816</v>
+        <v>100674.314315215</v>
       </c>
       <c r="D29" t="n">
-        <v>88067.8045135125</v>
+        <v>88244.7393263178</v>
       </c>
       <c r="E29" t="n">
-        <v>135889.296938418</v>
+        <v>137426.272495422</v>
       </c>
       <c r="F29" t="n">
-        <v>150263.094560563</v>
+        <v>150247.179023338</v>
       </c>
       <c r="G29" t="s">
         <v>10</v>
@@ -1312,7 +1312,7 @@
         <v>95933</v>
       </c>
       <c r="I29" t="n">
-        <v>22540.6530361663</v>
+        <v>21813.212815661</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -1323,19 +1323,19 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>120156.293858887</v>
+        <v>118754.849303896</v>
       </c>
       <c r="C30" t="n">
-        <v>100697.281534854</v>
+        <v>99738.9381061177</v>
       </c>
       <c r="D30" t="n">
-        <v>90098.4715602684</v>
+        <v>88110.8669151287</v>
       </c>
       <c r="E30" t="n">
-        <v>139308.275197773</v>
+        <v>137108.709169227</v>
       </c>
       <c r="F30" t="n">
-        <v>151159.762283485</v>
+        <v>150942.596709944</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -1344,7 +1344,7 @@
         <v>102912</v>
       </c>
       <c r="I30" t="n">
-        <v>17244.2938588866</v>
+        <v>15842.8493038963</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -1355,19 +1355,19 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>114466.834653459</v>
+        <v>113251.43580744</v>
       </c>
       <c r="C31" t="n">
-        <v>94879.6457153589</v>
+        <v>93935.708670206</v>
       </c>
       <c r="D31" t="n">
-        <v>81582.5995611227</v>
+        <v>82926.0004639524</v>
       </c>
       <c r="E31" t="n">
-        <v>133355.678136369</v>
+        <v>133506.669933597</v>
       </c>
       <c r="F31" t="n">
-        <v>145105.615262128</v>
+        <v>145347.812700164</v>
       </c>
       <c r="G31" t="s">
         <v>10</v>
@@ -1376,7 +1376,7 @@
         <v>106846</v>
       </c>
       <c r="I31" t="n">
-        <v>7620.83465345946</v>
+        <v>6405.43580744034</v>
       </c>
       <c r="J31" t="s">
         <v>11</v>
@@ -1387,19 +1387,19 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>118761.748057009</v>
+        <v>117088.893225078</v>
       </c>
       <c r="C32" t="n">
-        <v>100003.565954343</v>
+        <v>97667.1733422896</v>
       </c>
       <c r="D32" t="n">
-        <v>87121.4442581327</v>
+        <v>85738.2979642154</v>
       </c>
       <c r="E32" t="n">
-        <v>137062.935431591</v>
+        <v>137411.320652011</v>
       </c>
       <c r="F32" t="n">
-        <v>148516.313456663</v>
+        <v>148217.374007646</v>
       </c>
       <c r="G32" t="s">
         <v>10</v>
@@ -1408,7 +1408,7 @@
         <v>112648</v>
       </c>
       <c r="I32" t="n">
-        <v>6113.74805700936</v>
+        <v>4440.8932250776</v>
       </c>
       <c r="J32" t="s">
         <v>11</v>
@@ -1419,19 +1419,19 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>117855.446941428</v>
+        <v>116233.370772603</v>
       </c>
       <c r="C33" t="n">
-        <v>98453.7563288153</v>
+        <v>95693.0873135125</v>
       </c>
       <c r="D33" t="n">
-        <v>87614.127690518</v>
+        <v>85863.2461135086</v>
       </c>
       <c r="E33" t="n">
-        <v>137422.273891974</v>
+        <v>136997.189149427</v>
       </c>
       <c r="F33" t="n">
-        <v>151493.06965877</v>
+        <v>148769.91203827</v>
       </c>
       <c r="G33" t="s">
         <v>10</v>
@@ -1440,7 +1440,7 @@
         <v>115375</v>
       </c>
       <c r="I33" t="n">
-        <v>2480.44694142835</v>
+        <v>858.370772603201</v>
       </c>
       <c r="J33" t="s">
         <v>11</v>
@@ -1451,19 +1451,19 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>108023.422856612</v>
+        <v>107138.451139737</v>
       </c>
       <c r="C34" t="n">
-        <v>88005.7564883322</v>
+        <v>87454.8366561574</v>
       </c>
       <c r="D34" t="n">
-        <v>75890.4944643074</v>
+        <v>76419.6964095279</v>
       </c>
       <c r="E34" t="n">
-        <v>128071.888901171</v>
+        <v>128862.777791741</v>
       </c>
       <c r="F34" t="n">
-        <v>142144.609480861</v>
+        <v>141173.572305628</v>
       </c>
       <c r="G34" t="s">
         <v>10</v>
@@ -1472,7 +1472,7 @@
         <v>101083</v>
       </c>
       <c r="I34" t="n">
-        <v>6940.42285661197</v>
+        <v>6055.4511397373</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
@@ -1483,19 +1483,19 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>110628.6072974</v>
+        <v>109152.362658294</v>
       </c>
       <c r="C35" t="n">
-        <v>89654.5929300151</v>
+        <v>89993.3670640974</v>
       </c>
       <c r="D35" t="n">
-        <v>74824.3199815456</v>
+        <v>74768.2229087843</v>
       </c>
       <c r="E35" t="n">
-        <v>132495.934691476</v>
+        <v>129318.063161517</v>
       </c>
       <c r="F35" t="n">
-        <v>143354.659058063</v>
+        <v>145295.007726826</v>
       </c>
       <c r="G35" t="s">
         <v>10</v>
@@ -1504,7 +1504,7 @@
         <v>90015</v>
       </c>
       <c r="I35" t="n">
-        <v>20613.6072974003</v>
+        <v>19137.362658294</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -1515,19 +1515,19 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>109849.515893243</v>
+        <v>108806.791514216</v>
       </c>
       <c r="C36" t="n">
-        <v>87880.6808948668</v>
+        <v>88449.4113399106</v>
       </c>
       <c r="D36" t="n">
-        <v>74692.2389350901</v>
+        <v>76313.9560216974</v>
       </c>
       <c r="E36" t="n">
-        <v>132422.064506513</v>
+        <v>129414.062676238</v>
       </c>
       <c r="F36" t="n">
-        <v>142185.897129592</v>
+        <v>145393.911730181</v>
       </c>
       <c r="G36" t="s">
         <v>10</v>
@@ -1536,7 +1536,7 @@
         <v>86371</v>
       </c>
       <c r="I36" t="n">
-        <v>23478.515893243</v>
+        <v>22435.7915142156</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
@@ -1547,19 +1547,19 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>107108.168011378</v>
+        <v>106331.534552175</v>
       </c>
       <c r="C37" t="n">
-        <v>85251.0491857538</v>
+        <v>84828.542531114</v>
       </c>
       <c r="D37" t="n">
-        <v>70308.7986065481</v>
+        <v>74227.4576222121</v>
       </c>
       <c r="E37" t="n">
-        <v>128663.350559697</v>
+        <v>127780.618019491</v>
       </c>
       <c r="F37" t="n">
-        <v>140529.357264065</v>
+        <v>142810.723260436</v>
       </c>
       <c r="G37" t="s">
         <v>10</v>
@@ -1568,7 +1568,7 @@
         <v>59498</v>
       </c>
       <c r="I37" t="n">
-        <v>47610.1680113778</v>
+        <v>46833.5345521749</v>
       </c>
       <c r="J37" t="s">
         <v>11</v>
@@ -1579,19 +1579,19 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>124553.169679218</v>
+        <v>123744.725060085</v>
       </c>
       <c r="C38" t="n">
-        <v>102758.408882398</v>
+        <v>101780.726380877</v>
       </c>
       <c r="D38" t="n">
-        <v>91697.7616968042</v>
+        <v>90879.4176298359</v>
       </c>
       <c r="E38" t="n">
-        <v>146464.890254026</v>
+        <v>145636.297371016</v>
       </c>
       <c r="F38" t="n">
-        <v>161103.676768077</v>
+        <v>161392.181352384</v>
       </c>
       <c r="G38" t="s">
         <v>10</v>
@@ -1600,7 +1600,7 @@
         <v>74790</v>
       </c>
       <c r="I38" t="n">
-        <v>49763.1696792177</v>
+        <v>48954.7250600848</v>
       </c>
       <c r="J38" t="s">
         <v>11</v>
@@ -1611,19 +1611,19 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>112696.587445235</v>
+        <v>111463.877262871</v>
       </c>
       <c r="C39" t="n">
-        <v>89394.3002977383</v>
+        <v>89710.5890025475</v>
       </c>
       <c r="D39" t="n">
-        <v>78925.0738295481</v>
+        <v>75014.8237884718</v>
       </c>
       <c r="E39" t="n">
-        <v>134828.094935167</v>
+        <v>134042.621974127</v>
       </c>
       <c r="F39" t="n">
-        <v>150187.427894244</v>
+        <v>147194.431080021</v>
       </c>
       <c r="G39" t="s">
         <v>10</v>
@@ -1632,7 +1632,7 @@
         <v>116063</v>
       </c>
       <c r="I39" t="n">
-        <v>-3366.41255476534</v>
+        <v>-4599.12273712868</v>
       </c>
       <c r="J39" t="s">
         <v>12</v>
@@ -1643,19 +1643,19 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>130241.435878168</v>
+        <v>129110.688332621</v>
       </c>
       <c r="C40" t="n">
-        <v>106693.556200773</v>
+        <v>106367.268158415</v>
       </c>
       <c r="D40" t="n">
-        <v>95770.0575545591</v>
+        <v>92240.2154106028</v>
       </c>
       <c r="E40" t="n">
-        <v>152136.139817167</v>
+        <v>151761.769578238</v>
       </c>
       <c r="F40" t="n">
-        <v>168414.259364816</v>
+        <v>165180.648412675</v>
       </c>
       <c r="G40" t="s">
         <v>10</v>
@@ -1664,7 +1664,7 @@
         <v>126932</v>
       </c>
       <c r="I40" t="n">
-        <v>3309.43587816766</v>
+        <v>2178.68833262092</v>
       </c>
       <c r="J40" t="s">
         <v>11</v>
